--- a/src/output_files/Бозшаколь - Ежевая.xlsx
+++ b/src/output_files/Бозшаколь - Ежевая.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N298"/>
+  <dimension ref="A1:O298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>Груз</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -548,6 +553,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -596,6 +606,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -644,6 +659,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -692,6 +712,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -740,6 +765,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -788,6 +818,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -836,6 +871,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -884,6 +924,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -932,6 +977,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -980,6 +1030,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1028,6 +1083,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1076,6 +1136,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1124,6 +1189,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1172,6 +1242,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1220,6 +1295,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1268,6 +1348,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1316,6 +1401,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1364,6 +1454,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1412,6 +1507,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1460,6 +1560,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1508,6 +1613,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1556,6 +1666,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1604,6 +1719,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1652,6 +1772,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1700,6 +1825,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1748,6 +1878,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1796,6 +1931,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1844,6 +1984,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1892,6 +2037,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1940,6 +2090,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1988,6 +2143,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2036,6 +2196,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2084,6 +2249,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2132,6 +2302,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2180,6 +2355,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2228,6 +2408,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2276,6 +2461,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2324,6 +2514,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2372,6 +2567,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2420,6 +2620,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2468,6 +2673,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2516,6 +2726,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2564,6 +2779,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2612,6 +2832,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2660,6 +2885,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2708,6 +2938,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2756,6 +2991,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2804,6 +3044,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2852,6 +3097,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2900,6 +3150,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2948,6 +3203,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2996,6 +3256,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3044,6 +3309,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3092,6 +3362,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3140,6 +3415,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3188,6 +3468,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3236,6 +3521,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3284,6 +3574,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3332,6 +3627,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3380,6 +3680,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3428,6 +3733,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3476,6 +3786,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3524,6 +3839,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3572,6 +3892,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3620,6 +3945,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3668,6 +3998,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3716,6 +4051,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3764,6 +4104,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3812,6 +4157,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3860,6 +4210,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3908,6 +4263,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3956,6 +4316,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4004,6 +4369,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4052,6 +4422,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4100,6 +4475,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4148,6 +4528,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4196,6 +4581,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4244,6 +4634,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4292,6 +4687,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4340,6 +4740,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4388,6 +4793,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4436,6 +4846,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4484,6 +4899,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4532,6 +4952,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4580,6 +5005,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4628,6 +5058,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4676,6 +5111,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4724,6 +5164,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4772,6 +5217,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4820,6 +5270,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4868,6 +5323,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4916,6 +5376,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4964,6 +5429,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5012,6 +5482,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5060,6 +5535,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5108,6 +5588,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5156,6 +5641,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5204,6 +5694,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5252,6 +5747,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5300,6 +5800,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5348,6 +5853,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5396,6 +5906,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5444,6 +5959,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5492,6 +6012,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5540,6 +6065,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5588,6 +6118,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5636,6 +6171,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5684,6 +6224,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5732,6 +6277,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5780,6 +6330,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5828,6 +6383,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5876,6 +6436,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5924,6 +6489,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5952,19 +6522,15 @@
         <v>70.18183000000001</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 3, , 2 дн.;</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
@@ -5974,6 +6540,11 @@
       <c r="N115" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -6004,19 +6575,15 @@
         <v>73.10144200000001</v>
       </c>
       <c r="H116" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 13, , 1 дн.;</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -6026,6 +6593,11 @@
       <c r="N116" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -6056,19 +6628,15 @@
         <v>60.208524</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 3, , 5 дн.;</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
@@ -6078,6 +6646,11 @@
       <c r="N117" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -6128,6 +6701,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6176,6 +6754,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6224,6 +6807,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6272,6 +6860,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6320,6 +6913,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6368,6 +6966,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6416,6 +7019,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6464,6 +7072,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6512,6 +7125,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6540,12 +7158,12 @@
         <v>69.102479</v>
       </c>
       <c r="H127" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Ежевая - Бозшаколь: 6, , 3 дн.;</t>
+          <t>Ежевая - Бозшаколь: 1, , 3 дн.;</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -6562,6 +7180,11 @@
       <c r="N127" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -6612,6 +7235,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6660,6 +7288,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6708,6 +7341,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6756,6 +7394,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6804,6 +7447,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6852,6 +7500,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6900,6 +7553,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6948,6 +7606,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6996,6 +7659,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7044,6 +7712,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7092,6 +7765,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7140,6 +7818,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7188,6 +7871,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7236,6 +7924,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7284,6 +7977,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7332,6 +8030,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7380,6 +8083,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7408,19 +8116,15 @@
         <v>61.928054</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 2, , 4 дн.;</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -7430,6 +8134,11 @@
       <c r="N145" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -7480,6 +8189,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -7528,6 +8242,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7576,6 +8295,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7624,6 +8348,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7652,19 +8381,15 @@
         <v>63.67971</v>
       </c>
       <c r="H150" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 6, , 4 дн.;</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -7674,6 +8399,11 @@
       <c r="N150" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -7724,6 +8454,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7772,6 +8507,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7820,6 +8560,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -7868,6 +8613,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -7916,6 +8666,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7964,6 +8719,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -8012,6 +8772,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -8060,6 +8825,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -8108,6 +8878,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -8136,12 +8911,12 @@
         <v>74.29441300000001</v>
       </c>
       <c r="H160" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Ежевая - Бозшаколь: 30, , 0 дн.;</t>
+          <t>Ежевая - Бозшаколь: 21, , 0 дн.;</t>
         </is>
       </c>
       <c r="K160" t="n">
@@ -8158,6 +8933,11 @@
       <c r="N160" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -8208,6 +8988,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -8256,6 +9041,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8304,6 +9094,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8352,6 +9147,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -8400,6 +9200,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -8448,6 +9253,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -8496,6 +9306,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -8544,6 +9359,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -8592,6 +9412,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8640,6 +9465,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8688,6 +9518,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8736,6 +9571,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8784,6 +9624,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8832,6 +9677,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8880,6 +9730,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -8928,6 +9783,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -8976,6 +9836,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -9024,6 +9889,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -9072,6 +9942,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -9120,6 +9995,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -9168,6 +10048,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -9216,6 +10101,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -9264,6 +10154,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -9312,6 +10207,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -9360,6 +10260,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -9408,6 +10313,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -9456,6 +10366,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -9504,6 +10419,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -9552,6 +10472,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -9600,6 +10525,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -9648,6 +10578,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -9696,6 +10631,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -9744,6 +10684,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -9792,6 +10737,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -9840,6 +10790,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -9888,6 +10843,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -9916,19 +10876,15 @@
         <v>60.473385</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 1, , 5 дн.;</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
@@ -9938,6 +10894,11 @@
       <c r="N197" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -9988,6 +10949,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -10036,6 +11002,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -10084,6 +11055,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -10132,6 +11108,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -10180,6 +11161,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -10228,6 +11214,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -10276,6 +11267,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -10324,6 +11320,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -10372,6 +11373,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -10420,6 +11426,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -10468,6 +11479,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -10516,6 +11532,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -10564,6 +11585,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -10612,6 +11638,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -10660,6 +11691,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -10708,6 +11744,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -10736,19 +11777,15 @@
         <v>70.18183000000001</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 3, , 2 дн.;</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
@@ -10758,6 +11795,11 @@
       <c r="N214" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -10788,19 +11830,15 @@
         <v>73.10144200000001</v>
       </c>
       <c r="H215" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 13, , 1 дн.;</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
@@ -10810,6 +11848,11 @@
       <c r="N215" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -10840,19 +11883,15 @@
         <v>60.208524</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 3, , 5 дн.;</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
@@ -10862,6 +11901,11 @@
       <c r="N216" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -10912,6 +11956,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -10960,6 +12009,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -11008,6 +12062,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -11056,6 +12115,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -11104,6 +12168,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -11152,6 +12221,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -11200,6 +12274,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -11248,6 +12327,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -11296,6 +12380,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -11324,12 +12413,12 @@
         <v>69.102479</v>
       </c>
       <c r="H226" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Ежевая - Бозшаколь: 6, , 3 дн.;</t>
+          <t>Ежевая - Бозшаколь: 1, , 3 дн.;</t>
         </is>
       </c>
       <c r="K226" t="n">
@@ -11346,6 +12435,11 @@
       <c r="N226" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -11396,6 +12490,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -11444,6 +12543,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -11492,6 +12596,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -11540,6 +12649,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -11588,6 +12702,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -11636,6 +12755,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -11684,6 +12808,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -11732,6 +12861,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -11780,6 +12914,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -11828,6 +12967,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -11876,6 +13020,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -11924,6 +13073,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -11972,6 +13126,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -12020,6 +13179,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -12068,6 +13232,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -12116,6 +13285,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -12164,6 +13338,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -12192,19 +13371,15 @@
         <v>61.928054</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 2, , 4 дн.;</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
@@ -12214,6 +13389,11 @@
       <c r="N244" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -12264,6 +13444,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -12312,6 +13497,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -12360,6 +13550,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -12408,6 +13603,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -12436,19 +13636,15 @@
         <v>63.67971</v>
       </c>
       <c r="H249" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 6, , 4 дн.;</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
@@ -12458,6 +13654,11 @@
       <c r="N249" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -12508,6 +13709,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -12556,6 +13762,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -12604,6 +13815,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -12652,6 +13868,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -12700,6 +13921,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -12748,6 +13974,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -12796,6 +14027,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -12844,6 +14080,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -12892,6 +14133,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -12920,12 +14166,12 @@
         <v>74.29441300000001</v>
       </c>
       <c r="H259" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Ежевая - Бозшаколь: 30, , 0 дн.;</t>
+          <t>Ежевая - Бозшаколь: 21, , 0 дн.;</t>
         </is>
       </c>
       <c r="K259" t="n">
@@ -12942,6 +14188,11 @@
       <c r="N259" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -12992,6 +14243,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -13040,6 +14296,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -13088,6 +14349,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -13136,6 +14402,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -13184,6 +14455,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -13232,6 +14508,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -13280,6 +14561,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -13328,6 +14614,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -13376,6 +14667,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -13424,6 +14720,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -13472,6 +14773,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -13520,6 +14826,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -13568,6 +14879,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -13616,6 +14932,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -13664,6 +14985,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -13712,6 +15038,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -13760,6 +15091,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -13808,6 +15144,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -13856,6 +15197,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -13904,6 +15250,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -13952,6 +15303,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -14000,6 +15356,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -14048,6 +15409,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -14096,6 +15462,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -14144,6 +15515,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -14192,6 +15568,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -14240,6 +15621,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -14288,6 +15674,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -14336,6 +15727,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -14384,6 +15780,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -14432,6 +15833,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -14480,6 +15886,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -14528,6 +15939,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -14576,6 +15992,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -14624,6 +16045,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -14672,6 +16098,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -14700,19 +16131,15 @@
         <v>60.473385</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr">
-        <is>
-          <t>Ежевая - Бозшаколь: 1, , 5 дн.;</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M296" t="inlineStr">
         <is>
@@ -14722,6 +16149,11 @@
       <c r="N296" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
@@ -14772,6 +16204,11 @@
           <t>Все</t>
         </is>
       </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -14818,6 +16255,11 @@
       <c r="N298" t="inlineStr">
         <is>
           <t>Все</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>2021-02-04 12:43</t>
         </is>
       </c>
     </row>
